--- a/data/trans_camb/P31_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P31_1_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>27,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>11,41</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15,41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 14,57</t>
+          <t>-16,47; 27,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 27,23</t>
+          <t>2,63; 62,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 15,6</t>
+          <t>-27,54; 14,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 11,8</t>
+          <t>-18,81; 20,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 11,62</t>
+          <t>-17,61; 21,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 15,09</t>
+          <t>-8,42; 32,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,98; 19,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 36,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-12,2; 24,92</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>121,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>-19,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49,73%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,57; 70,22</t>
+          <t>-48,49; 206,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 128,39</t>
+          <t>0,16; 592,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 53,59</t>
+          <t>-78,75; 93,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 38,53</t>
+          <t>-39,12; 75,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 42,47</t>
+          <t>-40,89; 72,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 56,06</t>
+          <t>-19,93; 115,72</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-31,26; 86,3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 165,06</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,48; 106,56</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,93</t>
+          <t>-14,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>6,33</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 6,23</t>
+          <t>-16,91; 11,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 11,82</t>
+          <t>-18,08; 6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 19,2</t>
+          <t>-27,31; -1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 17,58</t>
+          <t>1,58; 22,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 10,34</t>
+          <t>-5,81; 14,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 11,77</t>
+          <t>-4,27; 16,68</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 12,52</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 7,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,51; 3,86</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,49%</t>
+          <t>-7,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>-13,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>-39,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-11,79%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 21,88</t>
+          <t>-38,69; 40,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 41,32</t>
+          <t>-40,89; 22,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 69,62</t>
+          <t>-62,07; -6,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 63,3</t>
+          <t>2,93; 84,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 34,34</t>
+          <t>-16,16; 53,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 39,63</t>
+          <t>-11,61; 60,47</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-11,6; 42,73</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-22,1; 25,28</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-32,56; 13,27</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 11,07</t>
+          <t>-12,19; 12,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 19,23</t>
+          <t>-6,61; 17,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 16,0</t>
+          <t>-9,53; 14,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 13,97</t>
+          <t>-5,48; 15,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 10,57</t>
+          <t>-7,98; 11,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 13,45</t>
+          <t>-5,82; 15,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 10,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 11,46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 11,54</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 47,43</t>
+          <t>-34,74; 48,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 82,24</t>
+          <t>-18,32; 77,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 57,94</t>
+          <t>-27,9; 61,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 49,86</t>
+          <t>-13,66; 53,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 38,65</t>
+          <t>-20,95; 42,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 49,62</t>
+          <t>-14,47; 54,37</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-16,43; 35,28</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-12,62; 42,64</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; 41,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 5,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 12,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 12,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 20,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 43,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 44,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 40,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 25,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 30,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,91</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,15; 8,44</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 13,65</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-15,59; 1,31</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 14,87</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 10,04</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 14,89</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 9,07</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 8,8</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 5,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-2,39%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-21,86%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23,88%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-25,55; 31,08</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 49,81</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-42,78; 4,99</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 48,77</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-10,18; 33,85</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 48,98</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 30,53</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 29,93</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; 19,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
